--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/roi.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/roi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5AB2F8-FE88-4920-89CB-8D6ED36D3DDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDF4679-B1D8-4A67-9289-2968DE878617}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="41955" windowHeight="22110" xr2:uid="{742D6644-4AEC-44AA-A4E6-7B81DE9A4471}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="41952" windowHeight="22116" xr2:uid="{742D6644-4AEC-44AA-A4E6-7B81DE9A4471}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="3" r:id="rId1"/>
@@ -28,8 +28,8 @@
     <sheet name="Mask" sheetId="16" r:id="rId13"/>
     <sheet name="Transform" sheetId="17" r:id="rId14"/>
     <sheet name="Font" sheetId="25" r:id="rId15"/>
-    <sheet name="Unit" sheetId="23" r:id="rId16"/>
-    <sheet name="size" sheetId="24" r:id="rId17"/>
+    <sheet name="size" sheetId="24" r:id="rId16"/>
+    <sheet name="width" sheetId="26" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="309">
   <si>
     <t>English Attribution</t>
   </si>
@@ -924,73 +924,6 @@
   </si>
   <si>
     <t>unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/roi/unit/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000300</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"nano-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:nm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rdf:langString</t>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rdfs:label</t>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>名称</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1001,25 +934,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>base unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>rdfs:Class</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1132,18 +1046,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:pt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[size:2pt]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>"point"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Affine Transform</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1216,14 +1122,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PATO:0000117</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[size:1pt]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[font:shape1]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1233,6 +1131,44 @@
   </si>
   <si>
     <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PATO:0000921</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>[width:1pt]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>幅</t>
+    <rPh sb="0" eb="1">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PATO:0000921</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitLength:pt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1271,7 +1207,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1309,7 +1245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1327,9 +1263,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1659,14 +1592,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1674,7 +1607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1682,7 +1615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1690,7 +1623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1698,7 +1631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1706,7 +1639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1714,7 +1647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>195</v>
       </c>
@@ -1722,7 +1655,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>239</v>
       </c>
@@ -1730,7 +1663,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>241</v>
       </c>
@@ -1738,7 +1671,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>243</v>
       </c>
@@ -1746,7 +1679,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>238</v>
       </c>
@@ -1754,7 +1687,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>199</v>
       </c>
@@ -1762,7 +1695,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>204</v>
       </c>
@@ -1770,7 +1703,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>206</v>
       </c>
@@ -1778,7 +1711,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>209</v>
       </c>
@@ -1786,7 +1719,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>211</v>
       </c>
@@ -1794,7 +1727,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>214</v>
       </c>
@@ -1802,7 +1735,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>114</v>
       </c>
@@ -1810,7 +1743,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>186</v>
       </c>
@@ -1818,12 +1751,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1839,19 +1772,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1880,7 +1813,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1893,7 +1826,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1920,7 +1853,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1949,12 +1882,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1988,19 +1921,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2020,10 +1953,10 @@
         <v>158</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2034,7 +1967,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2052,10 +1985,10 @@
         <v>162</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2075,15 +2008,15 @@
         <v>176</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2095,7 +2028,7 @@
         <v>233</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2111,20 +2044,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="7" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2156,7 +2089,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2170,7 +2103,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2200,7 +2133,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2232,12 +2165,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2255,15 +2188,15 @@
         <v>233</v>
       </c>
       <c r="I5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -2281,7 +2214,7 @@
         <v>233</v>
       </c>
       <c r="I6" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>160</v>
@@ -2299,18 +2232,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2339,7 +2272,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2352,7 +2285,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2379,7 +2312,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2408,12 +2341,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2446,41 +2379,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2492,36 +2425,36 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>48</v>
@@ -2542,7 +2475,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>151</v>
       </c>
@@ -2565,7 +2498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>160</v>
       </c>
@@ -2600,21 +2533,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>107</v>
@@ -2626,7 +2559,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2635,7 +2568,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2650,12 +2583,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>166</v>
@@ -2667,33 +2600,33 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2702,139 +2635,28 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC7699A-A00C-4F9A-9881-30F4FA0AC468}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAB2A5F-0C2A-489C-86C7-D74565D09E90}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>182</v>
@@ -2843,21 +2665,21 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2866,10 +2688,10 @@
         <v>185</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2880,40 +2702,129 @@
         <v>98</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
-      <c r="D5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
-        <v>297</v>
+      <c r="D5" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
-        <v>299</v>
+      <c r="D6" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>298</v>
+      <c r="D7" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8D8160-FEF2-4591-A88C-93BA0B7797C6}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2929,18 +2840,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2960,7 +2871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2970,7 +2881,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2988,7 +2899,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3008,12 +2919,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>89</v>
@@ -3025,7 +2936,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>90</v>
       </c>
@@ -3033,7 +2944,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>90</v>
       </c>
@@ -3041,7 +2952,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>90</v>
       </c>
@@ -3049,7 +2960,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>90</v>
       </c>
@@ -3069,21 +2980,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3094,7 +3005,7 @@
         <v>192</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>34</v>
@@ -3127,7 +3038,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3145,7 +3056,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3154,7 +3065,7 @@
         <v>193</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>222</v>
@@ -3187,7 +3098,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3231,15 +3142,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D5" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>198</v>
@@ -3272,7 +3183,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
@@ -3283,7 +3194,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>88</v>
       </c>
@@ -3307,17 +3218,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3334,7 +3245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3343,7 +3254,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3358,7 +3269,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3369,18 +3280,18 @@
         <v>194</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>188</v>
@@ -3389,12 +3300,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>188</v>
@@ -3403,12 +3314,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>188</v>
@@ -3429,17 +3340,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3456,7 +3367,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3465,7 +3376,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3480,7 +3391,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3494,10 +3405,10 @@
         <v>52</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>117</v>
       </c>
@@ -3511,7 +3422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>119</v>
       </c>
@@ -3525,7 +3436,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>121</v>
       </c>
@@ -3539,7 +3450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>143</v>
       </c>
@@ -3565,16 +3476,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3588,7 +3499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3596,7 +3507,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3608,7 +3519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3622,56 +3533,56 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>125</v>
@@ -3689,15 +3600,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3708,14 +3619,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3724,7 +3635,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3735,7 +3646,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>95</v>
       </c>
@@ -3743,7 +3654,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>132</v>
       </c>
@@ -3751,7 +3662,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>132</v>
       </c>
@@ -3759,7 +3670,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>134</v>
       </c>
@@ -3767,7 +3678,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>134</v>
       </c>
@@ -3775,7 +3686,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>137</v>
       </c>
@@ -3783,7 +3694,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>139</v>
       </c>
@@ -3803,24 +3714,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3843,7 +3754,7 @@
         <v>104</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>108</v>
@@ -3861,7 +3772,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3878,7 +3789,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3899,7 +3810,7 @@
         <v>162</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>168</v>
@@ -3917,7 +3828,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3934,13 +3845,13 @@
         <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>156</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>167</v>
@@ -3948,8 +3859,8 @@
       <c r="J4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>319</v>
+      <c r="K4" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>171</v>
@@ -3958,12 +3869,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3975,12 +3886,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -3995,7 +3906,7 @@
         <v>205</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>189</v>
@@ -4003,11 +3914,11 @@
       <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>320</v>
+      <c r="K6" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
@@ -4025,15 +3936,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4044,14 +3955,14 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4060,18 +3971,18 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>181</v>
       </c>
@@ -4079,7 +3990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>188</v>
       </c>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/roi.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/roi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDF4679-B1D8-4A67-9289-2968DE878617}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C5115D-9EF5-4022-8213-E1FF80032B3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="41952" windowHeight="22116" xr2:uid="{742D6644-4AEC-44AA-A4E6-7B81DE9A4471}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="329">
   <si>
     <t>English Attribution</t>
   </si>
@@ -314,13 +314,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixcels:1]</t>
-  </si>
-  <si>
-    <t>[pixcels:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -341,10 +334,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[point:shape2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[bag:1]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -409,42 +398,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[point:shape1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>roi</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/roi/roi/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[bag:2]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -480,56 +437,28 @@
     <t>//+szuv/AP95n8PiAABHbZO3AP8dPF+G</t>
   </si>
   <si>
-    <t>[point:shape1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[bag:2]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[line:shape5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[bag:3]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[rectangle:shape3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[label:shape4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[bag:4]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[rectangle:shape6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[bag:5]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[mask:shape7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Mask</t>
   </si>
   <si>
     <t>:Mask</t>
   </si>
   <si>
-    <t>[bindata:mask:shape7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>AOnpAA==</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -558,10 +487,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[transform:mask:shape7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -590,10 +515,6 @@
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[transform:ractangle:shape6]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1118,14 +1039,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[font:shape4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[font:shape1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Font</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1169,6 +1082,174 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mask</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>font</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/roi/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/roi/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/roi/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/roi/point/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/roi/line/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/roi/label/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/roi/rectangle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/roi/mask/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/roi/font/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata_mask_shape7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line:shape5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rectangle:shape3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label:shape4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rectangle:shape6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mask:shape7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>font:shape1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>font:shape4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transform:mask_shape7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:mask_shape7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transform:rectangle_shape6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rectangle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/roi/transform/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/roi/reagionOfInterest/</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1588,14 +1669,14 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1649,114 +1730,194 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>285</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>187</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>307</v>
+        <v>166</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>308</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -1774,12 +1935,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -1792,7 +1951,7 @@
         <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>69</v>
@@ -1832,7 +1991,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>75</v>
@@ -1861,7 +2020,7 @@
         <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -1884,10 +2043,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>316</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1902,10 +2061,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1924,12 +2083,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1941,19 +2099,19 @@
         <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1973,7 +2131,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>57</v>
@@ -1982,10 +2140,10 @@
         <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1996,7 +2154,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -2005,18 +2163,18 @@
         <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>318</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2025,10 +2183,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2046,14 +2204,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="7" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2065,13 +2222,13 @@
         <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>60</v>
@@ -2080,13 +2237,13 @@
         <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -2109,7 +2266,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>57</v>
@@ -2124,13 +2281,13 @@
         <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -2141,7 +2298,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -2156,21 +2313,21 @@
         <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2185,18 +2342,18 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="I5" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>319</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -2211,13 +2368,13 @@
         <v>1.5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="I6" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>160</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2235,11 +2392,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2248,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>60</v>
@@ -2266,10 +2423,10 @@
         <v>61</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -2291,13 +2448,13 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>62</v>
@@ -2306,10 +2463,10 @@
         <v>63</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -2317,10 +2474,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -2335,18 +2492,18 @@
         <v>48</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2361,10 +2518,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>151</v>
+        <v>323</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>143</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -2377,12 +2534,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B2A2FC-7163-464F-AEAD-399729DDF7F2}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -2392,25 +2551,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2431,22 +2590,22 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -2454,7 +2613,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>48</v>
@@ -2477,7 +2636,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>323</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -2500,7 +2659,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>325</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -2547,16 +2706,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2574,13 +2733,13 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -2588,43 +2747,43 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -2656,13 +2815,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2670,13 +2829,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -2685,10 +2844,10 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -2696,46 +2855,46 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2767,13 +2926,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2781,13 +2940,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -2796,10 +2955,10 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -2807,24 +2966,24 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2845,7 +3004,7 @@
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -2859,7 +3018,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>22</v>
@@ -2887,16 +3046,16 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -2904,30 +3063,30 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>308</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
@@ -2938,7 +3097,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>84</v>
@@ -2946,7 +3105,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>85</v>
@@ -2954,7 +3113,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>86</v>
@@ -2962,7 +3121,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>87</v>
@@ -2983,14 +3142,14 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3002,10 +3161,10 @@
         <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>34</v>
@@ -3062,40 +3221,40 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -3103,22 +3262,22 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>40</v>
@@ -3136,30 +3295,30 @@
         <v>40</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>307</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -3177,32 +3336,32 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>118</v>
+        <v>305</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>117</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>307</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>116</v>
+        <v>312</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>307</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>120</v>
+        <v>306</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>121</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3221,7 +3380,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -3236,7 +3395,7 @@
         <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>44</v>
@@ -3260,7 +3419,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>46</v>
@@ -3277,10 +3436,10 @@
         <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>53</v>
@@ -3288,44 +3447,44 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>305</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>312</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>306</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3343,7 +3502,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
@@ -3364,7 +3523,7 @@
         <v>50</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3388,7 +3547,7 @@
         <v>51</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -3405,18 +3564,18 @@
         <v>52</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -3424,13 +3583,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -3438,13 +3597,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>311</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -3452,13 +3611,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>313</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -3493,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -3513,7 +3672,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -3527,7 +3686,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -3538,10 +3697,10 @@
         <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -3549,10 +3708,10 @@
         <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -3560,10 +3719,10 @@
         <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -3571,10 +3730,10 @@
         <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -3582,10 +3741,10 @@
         <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3604,7 +3763,7 @@
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3613,10 +3772,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -3632,7 +3791,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -3643,63 +3802,63 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>135</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>136</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>138</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>140</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3716,18 +3875,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3739,37 +3897,37 @@
         <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
@@ -3795,37 +3953,37 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
@@ -3836,7 +3994,7 @@
         <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -3845,36 +4003,36 @@
         <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>314</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3888,10 +4046,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>315</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -3900,25 +4058,25 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
@@ -3949,10 +4107,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -3968,7 +4126,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -3976,15 +4134,15 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -3992,7 +4150,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1">
         <v>-2147483648</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/roi.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/roi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C5115D-9EF5-4022-8213-E1FF80032B3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DEB4D3-494C-479E-80BA-B8FB7674A184}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="41952" windowHeight="22116" xr2:uid="{742D6644-4AEC-44AA-A4E6-7B81DE9A4471}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="324">
   <si>
     <t>English Attribution</t>
   </si>
@@ -58,21 +58,12 @@
     <t>PropertyURI</t>
   </si>
   <si>
-    <t>:union</t>
-  </si>
-  <si>
     <t>datatype</t>
   </si>
   <si>
-    <t>:RegionOfInterest</t>
-  </si>
-  <si>
     <t>rdf:Bag</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
   <si>
@@ -157,21 +148,12 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
     <t>xsd:positiveInteger</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -181,12 +163,6 @@
     <t>acquisition mode</t>
   </si>
   <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:acquisitionMode</t>
-  </si>
-  <si>
     <t>xsd:float</t>
   </si>
   <si>
@@ -196,31 +172,15 @@
     <t>data</t>
   </si>
   <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
-    <t>:AcquisionMode</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Point</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>:y</t>
-  </si>
-  <si>
-    <t>:x</t>
-  </si>
-  <si>
-    <t>:Point</t>
-  </si>
-  <si>
     <t>Rectangle</t>
   </si>
   <si>
@@ -230,15 +190,6 @@
     <t>width</t>
   </si>
   <si>
-    <t>:height</t>
-  </si>
-  <si>
-    <t>:width</t>
-  </si>
-  <si>
-    <t>:Rectangle</t>
-  </si>
-  <si>
     <t>Line</t>
   </si>
   <si>
@@ -260,36 +211,9 @@
     <t>marker start</t>
   </si>
   <si>
-    <t>:markerEnd</t>
-  </si>
-  <si>
-    <t>:x2</t>
-  </si>
-  <si>
-    <t>:y2</t>
-  </si>
-  <si>
-    <t>:x1</t>
-  </si>
-  <si>
-    <t>:y1</t>
-  </si>
-  <si>
-    <t>:markerStart</t>
-  </si>
-  <si>
-    <t>:Line</t>
-  </si>
-  <si>
-    <t>:Marker</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
-    <t>:Label</t>
-  </si>
-  <si>
     <t>2010-02-23T12:51:30</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -318,9 +242,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Shape</t>
-  </si>
-  <si>
     <t>rdf:li</t>
   </si>
   <si>
@@ -350,14 +271,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:x</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:y</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>fill color</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -422,10 +335,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:length</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>/wCrzur//wB5oMPi/wBIbJO3AP8ePGCF</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -456,9 +365,6 @@
     <t>Mask</t>
   </si>
   <si>
-    <t>:Mask</t>
-  </si>
-  <si>
     <t>AOnpAA==</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -467,45 +373,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>tramsform</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:transform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Transform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:x</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>y</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:y</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:FillRule</t>
-  </si>
-  <si>
     <t>y</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -518,46 +397,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:fillColor</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fillRule</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fontFamily</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fontSize</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fontStyle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:FontStyle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Color</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:strokeColor</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:strokeDashArray</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:strokeWidth</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:string</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -565,37 +404,13 @@
     <t>xsd:nonNegativeInteger</t>
   </si>
   <si>
-    <t>:text</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:theC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
-    <t>:FillRule</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Transform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:tramsform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>transform</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:FontFamily</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[color:1]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -632,14 +447,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Image</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>identifier</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -728,74 +535,6 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Marker#</t>
-  </si>
-  <si>
-    <t>:pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:regionOfInterest</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:RegionOfInterest</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:PixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>fillRule:evenOdd</t>
@@ -886,10 +625,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Image:0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -955,10 +690,6 @@
     <t>Shape:7</t>
   </si>
   <si>
-    <t>:Color</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>fontStyle:bold</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -999,43 +730,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:a00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a01</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a02</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a10</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a11</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:AffineTransform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>font</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:font</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Font</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1250,6 +945,318 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/roi/reagionOfInterest/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:regionOfInterest</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:RegionOfInterest</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionMode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:AcquisionMode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:RegionOfInterest</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:union</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Shape</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fillColor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fillRule</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FillRule</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:font</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Font</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:strokeColor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:strokeDashArray</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:strokeWidth</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:theC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Line</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:markerStart</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Marker</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:markerEnd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Label</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FillRule</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Rectangle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:height</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:width</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Transform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:tramsform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Mask</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:transform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:AffineTransform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fontStyle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FontStyle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fontFamily</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FontFamily</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fontSize</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1682,242 +1689,242 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>224</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>285</v>
+        <v>202</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>296</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>288</v>
+        <v>205</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>297</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>300</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>301</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>326</v>
+        <v>243</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>302</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>304</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>294</v>
+        <v>211</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>327</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1939,7 +1946,8 @@
     <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1948,28 +1956,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -1991,62 +1999,62 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>72</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>79</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2061,10 +2069,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2096,22 +2104,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>273</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -2131,50 +2139,50 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>302</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>303</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>156</v>
+        <v>304</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>318</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2183,10 +2191,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2207,7 +2215,9 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.796875" style="1" bestFit="1" customWidth="1"/>
@@ -2219,31 +2229,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -2266,68 +2276,68 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>302</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>303</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>306</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>153</v>
+        <v>291</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>158</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>156</v>
+        <v>304</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>157</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>317</v>
+        <v>234</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2342,18 +2352,18 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="I5" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -2368,18 +2378,19 @@
         <v>1.5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>325</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2394,7 +2405,9 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
@@ -2405,28 +2418,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -2448,62 +2461,62 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>281</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>306</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>128</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>132</v>
+        <v>308</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>129</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>320</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>254</v>
+        <v>181</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2518,10 +2531,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>323</v>
+        <v>240</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>324</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2534,15 +2547,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B2A2FC-7163-464F-AEAD-399729DDF7F2}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2551,25 +2562,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>261</v>
+        <v>187</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2590,53 +2601,53 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>323</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -2659,7 +2670,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>325</v>
+        <v>242</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -2706,16 +2717,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2733,57 +2744,57 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>319</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>143</v>
+        <v>321</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>144</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>320</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>322</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>257</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -2815,13 +2826,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2829,13 +2840,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -2844,57 +2855,57 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>283</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>284</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>284</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2926,13 +2937,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2940,13 +2951,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -2955,35 +2966,35 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
-        <v>279</v>
+        <v>196</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>284</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3001,12 +3012,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3015,19 +3026,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -3046,85 +3057,85 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>308</v>
+        <v>225</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3146,7 +3157,7 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -3158,43 +3169,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
@@ -3221,104 +3232,104 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>128</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>129</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -3336,32 +3347,32 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>312</v>
+        <v>229</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3379,11 +3390,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3392,16 +3403,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3419,72 +3430,72 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>237</v>
+        <v>164</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>312</v>
+        <v>229</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3501,11 +3512,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3514,16 +3525,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3541,41 +3552,41 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>277</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -3583,13 +3594,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -3597,13 +3608,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -3611,13 +3622,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -3637,10 +3648,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3652,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -3672,79 +3683,79 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3772,10 +3783,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -3791,74 +3802,74 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>314</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>315</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>317</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>318</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>320</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3878,12 +3889,13 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
@@ -3894,40 +3906,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>273</v>
+        <v>192</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
@@ -3953,86 +3965,86 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>281</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>282</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>141</v>
+        <v>283</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>148</v>
+        <v>288</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>149</v>
+        <v>289</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>153</v>
+        <v>291</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>154</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>147</v>
+        <v>270</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>314</v>
+        <v>231</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -4046,10 +4058,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>315</v>
+        <v>232</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -4058,25 +4070,25 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>279</v>
+        <v>196</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
@@ -4107,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -4126,23 +4138,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -4150,7 +4162,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1">
         <v>-2147483648</v>
